--- a/urbs_intertemporal_2050/2024.xlsx
+++ b/urbs_intertemporal_2050/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239000E-70E4-4155-B9FF-11260C48F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D5EE2-B049-4A17-BE55-F92FBD5700FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,7 +2376,16 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -3424,7 +3433,7 @@
   <autoFilter ref="B1:F6" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3446,7 +3455,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3718,8 +3727,8 @@
       <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="51">
-        <v>53560</v>
+      <c r="F6" s="64">
+        <v>999999</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>28</v>
@@ -3765,8 +3774,8 @@
       <c r="E7" s="20">
         <v>0</v>
       </c>
-      <c r="F7" s="51">
-        <v>43590</v>
+      <c r="F7" s="64">
+        <v>999999</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>28</v>
@@ -3812,8 +3821,8 @@
       <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="F8" s="51">
-        <v>188900</v>
+      <c r="F8" s="64">
+        <v>999999</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>28</v>
@@ -4082,47 +4091,52 @@
   <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A2:A13">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:E3 G2:XFD3 A4:XFD6">
+  <conditionalFormatting sqref="A1:XFD1 A2:E3 G2:XFD3 A4:XFD5 A6:E6 G6:XFD6">
+    <cfRule type="expression" dxfId="22" priority="9">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B5">
     <cfRule type="expression" dxfId="21" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5 B7:B10">
-    <cfRule type="expression" dxfId="20" priority="7">
+  <conditionalFormatting sqref="B7:B10 B12:B13">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:XFD1048576 A19 P11:XFD19 D3:D13">
-    <cfRule type="expression" dxfId="19" priority="9">
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D13 P11:XFD19 A19 A20:XFD1048576">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:K4">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="15" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="14" priority="1">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4739,18 +4753,33 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <conditionalFormatting sqref="A1:XFD6 A7:C8 E7:XFD8 A9:XFD9 A10:C11 E10:XFD11 A12:XFD16 A17:C19 E17:XFD19 A20:XFD23 A33:XFD1048576 F24:XFD32">
-    <cfRule type="expression" dxfId="13" priority="29">
+  <conditionalFormatting sqref="A1:XFD6 A7:C8 E7:XFD8 A9:XFD9 A10:C11 E10:XFD11 A12:XFD16 A17:C19 E17:XFD19 A20:XFD23 F24:XFD32 A33:XFD1048576">
+    <cfRule type="expression" dxfId="14" priority="29">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C31">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:D32">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E2">
-    <cfRule type="expression" dxfId="12" priority="36">
+    <cfRule type="expression" dxfId="11" priority="36">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24 A24:A32 D27:E27 D30:E30">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D23">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4824,6 +4853,118 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF85B3E7-6D24-4702-AB47-0D47F71538F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F7E4DC53-D7B5-4205-8087-340EC79B984A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD4EE866-58E4-4CE7-814D-6232EE42462C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{638DB081-4439-4940-9AE3-880EB91DD8D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FA8C8CC-9E06-4AAF-9D36-B69E2717DF17}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65B46255-DD72-4D46-B680-EA22FDABDF35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6B773CE8-FE95-4E79-8BA2-717E6DDC4252}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B2637DB6-30FE-4484-B8A4-D99048727AA5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D15:E16 D2:D23">
     <cfRule type="dataBar" priority="37">
       <dataBar>
@@ -4862,6 +5003,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0A0C05FE-AFF7-47B4-82C0-19EAEEA3391A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:E30 E31">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69715B00-4721-4DC7-BD2B-D23473816C64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4908,147 +5063,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24 A24:A32 D27:E27 D30:E30">
-    <cfRule type="expression" dxfId="7" priority="16">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C31">
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DF85B3E7-6D24-4702-AB47-0D47F71538F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F7E4DC53-D7B5-4205-8087-340EC79B984A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BD4EE866-58E4-4CE7-814D-6232EE42462C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{638DB081-4439-4940-9AE3-880EB91DD8D4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FA8C8CC-9E06-4AAF-9D36-B69E2717DF17}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65B46255-DD72-4D46-B680-EA22FDABDF35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6B773CE8-FE95-4E79-8BA2-717E6DDC4252}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B2637DB6-30FE-4484-B8A4-D99048727AA5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:E30 E31">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69715B00-4721-4DC7-BD2B-D23473816C64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
     <cfRule type="dataBar" priority="21">
       <dataBar>
@@ -5064,7 +5078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5083,7 +5097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5102,7 +5116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5203,96 +5217,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F00EA992-7704-4FFF-9390-9F67541314D3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D15:E16 D2:D23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04E5CAC7-3551-4B94-B47C-699E9D4FD15E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D20:E21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A0C05FE-AFF7-47B4-82C0-19EAEEA3391A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D22:E23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0F5F82D7-D9D8-496A-8067-873F84F07A41}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33:E1048576 D1:E1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98CA02A6-D84B-4B8F-8EE0-BCA3C3E37146}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E12:E14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2349AB90-2466-4CCB-9A09-AFC1C523F64F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E17:E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DF85B3E7-6D24-4702-AB47-0D47F71538F8}">
@@ -5406,6 +5330,51 @@
           <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F00EA992-7704-4FFF-9390-9F67541314D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:E16 D2:D23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04E5CAC7-3551-4B94-B47C-699E9D4FD15E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D20:E21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A0C05FE-AFF7-47B4-82C0-19EAEEA3391A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D22:E23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{69715B00-4721-4DC7-BD2B-D23473816C64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -5419,6 +5388,51 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D30:E30 E31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0F5F82D7-D9D8-496A-8067-873F84F07A41}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:E1048576 D1:E1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{98CA02A6-D84B-4B8F-8EE0-BCA3C3E37146}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E12:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2349AB90-2466-4CCB-9A09-AFC1C523F64F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E17:E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{990B53AC-61DA-4898-8173-FDAF9356A9A3}">
@@ -5569,7 +5583,7 @@
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5910,12 +5924,12 @@
   <autoFilter ref="A1:U1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
